--- a/biology/Médecine/Armand_Corre/Armand_Corre.xlsx
+++ b/biology/Médecine/Armand_Corre/Armand_Corre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Armand Marie Corre (Laval, 4 septembre 1841 - Brest, 30 mai 1908) était un médecin de marine[2] et sociologue français[réf. nécessaire]. Il a rédigé de très nombreux livres et articles de médecine et d'histoire en rapport souvent avec la Marine et les colonies mais aussi avec la Bretagne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Armand Marie Corre (Laval, 4 septembre 1841 - Brest, 30 mai 1908) était un médecin de marine et sociologue français[réf. nécessaire]. Il a rédigé de très nombreux livres et articles de médecine et d'histoire en rapport souvent avec la Marine et les colonies mais aussi avec la Bretagne.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses parents paternels sont originaires de Saint-Jean-du-Doigt (Finistère). Il est sorti chirurgien de 3e classe de l’École de Médecine de la Marine à Brest. Il sert en Outre-mer de 1861 à 1887 : en Martinique (1861-1862), au Mexique (1862), à nouveau en Martinique (1862-1864), à nouveau au Mexique (1865-1866), à Pondichéry d'où il transporte des coolies en Martinique (1868), au Sénégal ( (1874-1876), à Madagascar (1878-1879, son séjour se termine mal, il est mis aux fers et ramené en France pour avoir défendu les populations locales contre le Gouverneur, c'est finalement le Gouverneur qui sera sanctionné), à Saïgon et au Cambodge (1879-1880) et enfin en Guadeloupe (en 1885-1887). En alternance avec des affectations en métropole. Il a été fait chevalier dans l'ordre de la Légion d'honneur dès 1862 (à 21 ans, pour sa conduite au Mexique).
 Reçu docteur en médecine à Paris en 1869, il a démissionné de la marine pour s'établir comme médecin civil à Brest, puis à Bois-Colombes de 1871 à 1874. Pendant la guerre de 1870-71, il s'est réengagé dans l'armée comme médecin-major d'un régiment de ligne.
 Professeur agrégé à l’École de Médecine de la Marine à Brest à partir de 1881, il prend sa retraite en 1888 après un dernier séjour ultra-marin en Guadeloupe, en 1883-1885. Il n'est plus dès lors tenu à aucune obligation de réserve, d'où des livres et articles engagés, anti-militaristes et anti-coloniaux quelquefois. Il devient archiviste de la ville de Brest de 1894 à 1896 et vice-président de la Société archéologique du Finistère, dont il démissionne avec fracas en 1900. C'était une forte personnalité.
-Il a publié, outre des livres, d'innombrables articles dans les journaux et revues les plus divers, de L'Intermédiaire des chercheurs et curieux aux revues les plus spécialisées. Il a lui-même déposé ses manuscrits, de crainte qu'ils ne soient détruits après sa mort, en divers lieux, aux Archives départementales du Finistère, à la Bibliothèque nationale à Paris, à l'Institut Pasteur à Paris, à la Bibliothèque municipale de Nantes, à celle de Lyon (fonds Lacassagne), à la bibliothèque des médecins de la marine à Brest[3]. Il a dirigé la thèse d'Albert Calmette. Pour Claude Thiébaut, le docteur Corre était indiscutablement raciste, même si le mot n’apparaîtra qu'en 1930, comme on l'était de son temps dans les milieux les plus divers, y compris les savants et les Républicains[4].
+Il a publié, outre des livres, d'innombrables articles dans les journaux et revues les plus divers, de L'Intermédiaire des chercheurs et curieux aux revues les plus spécialisées. Il a lui-même déposé ses manuscrits, de crainte qu'ils ne soient détruits après sa mort, en divers lieux, aux Archives départementales du Finistère, à la Bibliothèque nationale à Paris, à l'Institut Pasteur à Paris, à la Bibliothèque municipale de Nantes, à celle de Lyon (fonds Lacassagne), à la bibliothèque des médecins de la marine à Brest. Il a dirigé la thèse d'Albert Calmette. Pour Claude Thiébaut, le docteur Corre était indiscutablement raciste, même si le mot n’apparaîtra qu'en 1930, comme on l'était de son temps dans les milieux les plus divers, y compris les savants et les Républicains.
 </t>
         </is>
       </c>
@@ -547,35 +561,39 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Médecine et Chirurgie.
-Notes médicales recueillies à la Vera-Cruz, Mexique, 1862-1865-1866 (thèse de doctorat) — Faculté de Médecine de Paris, no 73, 1869, impr. A. Parent, 62 p.
+          <t>Médecine et Chirurgie.</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Notes médicales recueillies à la Vera-Cruz, Mexique, 1862-1865-1866 (thèse de doctorat) — Faculté de Médecine de Paris, no 73, 1869, impr. A. Parent, 62 p.
 Des lésions observées dans la fièvre jaune — (Gazette des hôpitaux civils et militaires, 24 avril 1869, p. 181-182).
 De l'influence de la race dans les maladies infectieuses — (Gazette hebdomadaire de Médecine et de Chirurgie, Tome V, no 37 et 38, 10 et 17 septembre 1869, p. 580b-583c et 509-b-600a).
 La Pratique de la chirurgie d'urgence, Paris, J -B. Baillière, 1872, in-18, VIII-216 p, 31 fig. Traduit en espagnol en 1875, Pratica de la cirurjia de urgencia, Bailly-Baillière éditeurs, Madrid.
 Ostéo-périostite chez l'enfant. Hypérémie thyroïdienne chez l'enfant (Journal de Médecine et de Chirurgie pratique, 1873).
-[1877] « Contribution à l'étude de la maladie du sommeil », Gazette médicale de Paris, t. 5, 4e série,‎ novembre et décembre 1876, p. 545-546 et 563 (lire en ligne).
+ « Contribution à l'étude de la maladie du sommeil », Gazette médicale de Paris, t. 5, 4e série,‎ novembre et décembre 1876, p. 545-546 et 563 (lire en ligne).
 Coup d'œil sur la matière médicale du Rio-Nunez », La Pharmacie de Lyon, Journal scientifique professionnel, Lyon, 2e année, no 25 et 26, 10 et 25 mars 1876, p. 193a-195a et 201a-202b.
-[1877] « Recherches sur la maladie du sommeil. Contribution à l'étude de la scrofule dans la race noire », Archives de médecine navale, t. 27,‎ avril et mai 1877, p. 292-312 et 330-356 (lire en ligne [sur archive.org]).
-[1878] « Démonstration spectroscopique de la présence du sang dans les urines de la fièvre bilieuse hématurique ou mélanurique », Archives de médecine navale, t. 29,‎ 1878, p. 393 (lire en ligne [sur archive.org]).
+ « Recherches sur la maladie du sommeil. Contribution à l'étude de la scrofule dans la race noire », Archives de médecine navale, t. 27,‎ avril et mai 1877, p. 292-312 et 330-356 (lire en ligne [sur archive.org]).
+ « Démonstration spectroscopique de la présence du sang dans les urines de la fièvre bilieuse hématurique ou mélanurique », Archives de médecine navale, t. 29,‎ 1878, p. 393 (lire en ligne [sur archive.org]).
 1878. « Observation d'aïnhum à Nossi Bé », Archives de Médecine navale.
-[1878] « Un mot sur l'herpès parasitaire des pays chauds », Archives de médecine navale, t. 30,‎ 1878, p. 408-410 (lire en ligne [sur archive.org]).
-[1878] « Albinisme sur deux frères jumeaux de race malgache », Archives de médecine navale, t. 30,‎ 1878, p. 410-411 (lire en ligne [sur archive.org]).
-[1881] « De l'hémoglobinurie paroxystique et de la fièvre dite bilieuse hématurique des pays chauds », Archives de médecine navale, t. 35,‎ mars 1881, p. 161-181 (lire en ligne [sur archive.org]).
-[1881] « Considérations générales sur l'étiologie de l'état typhoïde et des maladies typhiques », Archives de médecine navale, t. 36,‎ 1881, p. 175-216 (lire en ligne [sur archive.org]).
-[1881] « La théorie parasitaire de la fièvre intermittente » (revue critique de la publication par le Dr Laveran), Archives de médecine navale, t. 36,‎ 1881, p. 59-75 (lire en ligne [sur archive.org]).
-[1881] « De l'étiologie et de la prophylaxie du typhus amaril (fièvre jaune) », Archives de médecine navale, t. 37,‎ janvier, février et mars 1882, p. 5-26, 81-140 et 213-230 (lire en ligne [sur archive.org]).
-[1883] « Sur une nouvelle théorie pathogénique de la fièvre jaune » (revue critique des publications par Ch. Finlay), Archives de médecine navale, t. 39,‎ janvier 1883, p. 67-70 (lire en ligne [sur archive.org]).
+ « Un mot sur l'herpès parasitaire des pays chauds », Archives de médecine navale, t. 30,‎ 1878, p. 408-410 (lire en ligne [sur archive.org]).
+ « Albinisme sur deux frères jumeaux de race malgache », Archives de médecine navale, t. 30,‎ 1878, p. 410-411 (lire en ligne [sur archive.org]).
+ « De l'hémoglobinurie paroxystique et de la fièvre dite bilieuse hématurique des pays chauds », Archives de médecine navale, t. 35,‎ mars 1881, p. 161-181 (lire en ligne [sur archive.org]).
+ « Considérations générales sur l'étiologie de l'état typhoïde et des maladies typhiques », Archives de médecine navale, t. 36,‎ 1881, p. 175-216 (lire en ligne [sur archive.org]).
+ « La théorie parasitaire de la fièvre intermittente » (revue critique de la publication par le Dr Laveran), Archives de médecine navale, t. 36,‎ 1881, p. 59-75 (lire en ligne [sur archive.org]).
+ « De l'étiologie et de la prophylaxie du typhus amaril (fièvre jaune) », Archives de médecine navale, t. 37,‎ janvier, février et mars 1882, p. 5-26, 81-140 et 213-230 (lire en ligne [sur archive.org]).
+ « Sur une nouvelle théorie pathogénique de la fièvre jaune » (revue critique des publications par Ch. Finlay), Archives de médecine navale, t. 39,‎ janvier 1883, p. 67-70 (lire en ligne [sur archive.org]).
 1883. Traité des fièvres bilieuses et typhiques des pays chauds — Paris, Doin, in-8, 567 p.
-[1883] « La maladie de Balingall (pied du Madura), d'après des notes inédites du Dr Collas », Archives de médecine navale, t. 39,‎ 1883, p. 81-137 et 204-224 (lire en ligne [sur archive.org]).
+ « La maladie de Balingall (pied du Madura), d'après des notes inédites du Dr Collas », Archives de médecine navale, t. 39,‎ 1883, p. 81-137 et 204-224 (lire en ligne [sur archive.org]).
 1883. « Du traitement des maladies exotiques dans les climats tempérés : diarrhée et dysenterie chroniques », Congrès d'Amsterdam.
-[1883] « Leçons sur la syphilis cérébrale » (compte-rendu du livre du Dr E. Lancereaux), Archives de médecine navale, t. 40,‎ 1883, p. 151-155 (lire en ligne [sur archive.org]).
-[1883] « Hygiène des Européens dans les pays intertropicaux » (compte-rendu du livre du Dr Maurice Neilly), Archives de médecine navale, t. 40,‎ 1883, p. 460-462 (lire en ligne [sur archive.org]).
-[1884] « Compte rendu de diverses études sur la contagion de la fièvre jaune publiées par le Docteur Domingos Freire », Archives de médecine navale, t. 41,‎ mars 1884, p. 263-264.
+ « Leçons sur la syphilis cérébrale » (compte-rendu du livre du Dr E. Lancereaux), Archives de médecine navale, t. 40,‎ 1883, p. 151-155 (lire en ligne [sur archive.org]).
+ « Hygiène des Européens dans les pays intertropicaux » (compte-rendu du livre du Dr Maurice Neilly), Archives de médecine navale, t. 40,‎ 1883, p. 460-462 (lire en ligne [sur archive.org]).
+ « Compte rendu de diverses études sur la contagion de la fièvre jaune publiées par le Docteur Domingos Freire », Archives de médecine navale, t. 41,‎ mars 1884, p. 263-264.
 Manuel d'accouchement et de pathologie puerpérale — Paris, Doin, 1885, in-8°, ii-648 p., 4 pl.
 Traité clinique des maladies des pays chauds — Paris, Doin, 1887, grand in-8°, ii-862 p.
 Sur les ruptures de la rate — (Archives de l'Anthropologie criminelle, Lyon, 1890
-Contribution à l'étude des phénomènes de la putréfaction chez les noyés — (Archives de l'Anthropologie criminelle, Lyon, 1892).
-Histoire naturelle appliquée</t>
+Contribution à l'étude des phénomènes de la putréfaction chez les noyés — (Archives de l'Anthropologie criminelle, Lyon, 1892).</t>
         </is>
       </c>
     </row>
